--- a/Pessoal/Calculos.xlsx
+++ b/Pessoal/Calculos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Boleto Siccob" sheetId="1" state="visible" r:id="rId2"/>
@@ -533,16 +533,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,8 +555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="242280" y="2419920"/>
-          <a:ext cx="8825040" cy="3926880"/>
+          <a:off x="171360" y="2492280"/>
+          <a:ext cx="8935560" cy="3926880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,8 +620,8 @@
   </sheetPr>
   <dimension ref="A1:BI21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AT3" activeCellId="0" sqref="AT3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,7 +635,9 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="2.47448979591837"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.9234693877551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="2.14285714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="2.14285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="3.70918367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="2.14285714285714"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="2.9234693877551"/>
     <col collapsed="false" hidden="false" max="19" min="17" style="0" width="2.14285714285714"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="2.13265306122449"/>
@@ -1996,7 +1998,7 @@
   </sheetPr>
   <dimension ref="A1:BH19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
